--- a/geekshop/тестирование.xlsx
+++ b/geekshop/тестирование.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magdy\OneDrive - Microsoft 365\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magdy\PycharmProjects\django\geekshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892A44F2-4E28-4D7E-A4D2-EE89DF693AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7D17FB-DE9A-4BD6-AD26-CE5C89DF47D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="2205" windowWidth="21885" windowHeight="9360" xr2:uid="{E37E2AF7-75C5-4457-9BD0-4132886491AC}"/>
+    <workbookView xWindow="8445" yWindow="1170" windowWidth="21885" windowHeight="9360" xr2:uid="{E37E2AF7-75C5-4457-9BD0-4132886491AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Адрес</t>
   </si>
@@ -105,25 +105,22 @@
     <t>-R15 -C80</t>
   </si>
   <si>
-    <t xml:space="preserve">оптимизацию сделал в </t>
-  </si>
-  <si>
-    <t>select_related()</t>
-  </si>
-  <si>
-    <t>geekshop/baskets/views.py</t>
-  </si>
-  <si>
-    <t>geekshop/baskets/models.py</t>
-  </si>
-  <si>
-    <t>geekshop/mainapp/context_processors.py</t>
-  </si>
-  <si>
-    <t>geekshop/ordersapp/views.py</t>
-  </si>
-  <si>
-    <t>в результате уменьшилось количество дубликатов</t>
+    <t>-R30 -C30</t>
+  </si>
+  <si>
+    <t>при добавлении @cached_property в baskets</t>
+  </si>
+  <si>
+    <t>количество дублей упало в два раза, прирост скорости через siege не заметил</t>
+  </si>
+  <si>
+    <t>-R30 -C30 с with и memcached</t>
+  </si>
+  <si>
+    <t>-R30 -C30 с with и memcached и шаблон</t>
+  </si>
+  <si>
+    <t>кэширование всего сайта попробовал на разных браузерах , почемуто не получилось</t>
   </si>
 </sst>
 </file>
@@ -155,7 +152,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +165,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -233,11 +236,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -260,22 +298,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -590,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A21664-9146-44B9-ACA5-1B5583D097B6}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,124 +662,133 @@
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <v>15000</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>87.07</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>172.28</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>22500</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>184.11</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>122.21</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>12500</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>168.47</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>74.2</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>0.66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>12500</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>172.72</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>72.37</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>0.68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>22500</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>184.36</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>122.04</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -732,11 +798,20 @@
       <c r="C11" s="3">
         <v>12000</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="13">
         <v>10110</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="18">
+        <v>9241</v>
+      </c>
+      <c r="F11" s="18">
+        <v>9281</v>
+      </c>
+      <c r="G11" s="18">
+        <v>9281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -746,11 +821,20 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="14">
         <v>0.98160000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="19">
+        <v>99.57</v>
+      </c>
+      <c r="F12" s="19">
+        <v>99.57</v>
+      </c>
+      <c r="G12" s="19">
+        <v>99.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -760,11 +844,20 @@
       <c r="C13" s="3">
         <v>152.99</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="13">
         <v>325.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="18">
+        <v>137.76</v>
+      </c>
+      <c r="F13" s="18">
+        <v>179.7</v>
+      </c>
+      <c r="G13" s="18">
+        <v>182.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -774,11 +867,20 @@
       <c r="C14" s="3">
         <v>0.75</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="13">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -788,33 +890,54 @@
       <c r="C15" s="3">
         <v>78.44</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="13">
         <v>31.08</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E15" s="18">
+        <v>67.08</v>
+      </c>
+      <c r="F15" s="18">
+        <v>51.65</v>
+      </c>
+      <c r="G15" s="18">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="11">
         <v>0.63</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="11">
         <v>0.64</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="15">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="18">
+        <v>4.74</v>
+      </c>
+      <c r="F16" s="18">
+        <v>3.61</v>
+      </c>
+      <c r="G16" s="18">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -824,11 +947,20 @@
       <c r="C18" s="3">
         <v>59.14</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="13">
         <v>78.819999999999993</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="18">
+        <v>29.24</v>
+      </c>
+      <c r="F18" s="18">
+        <v>29.23</v>
+      </c>
+      <c r="G18" s="18">
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -838,11 +970,20 @@
       <c r="C19" s="3">
         <v>12000</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="13">
         <v>10127</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="18">
+        <v>9241</v>
+      </c>
+      <c r="F19" s="18">
+        <v>9281</v>
+      </c>
+      <c r="G19" s="18">
+        <v>9281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -852,11 +993,20 @@
       <c r="C20" s="3">
         <v>0</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="13">
         <v>189</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="18">
+        <v>40</v>
+      </c>
+      <c r="F20" s="18">
+        <v>40</v>
+      </c>
+      <c r="G20" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -866,43 +1016,32 @@
       <c r="C21" s="3">
         <v>5.0199999999999996</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="13">
         <v>60.54</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="18">
+        <v>3.71</v>
+      </c>
+      <c r="F21" s="18">
+        <v>6.58</v>
+      </c>
+      <c r="G21" s="18">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/geekshop/тестирование.xlsx
+++ b/geekshop/тестирование.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magdy\PycharmProjects\django\geekshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7D17FB-DE9A-4BD6-AD26-CE5C89DF47D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0262DEA5-CED3-4416-918D-13DBDCE42C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="1170" windowWidth="21885" windowHeight="9360" xr2:uid="{E37E2AF7-75C5-4457-9BD0-4132886491AC}"/>
+    <workbookView xWindow="2115" yWindow="1170" windowWidth="21885" windowHeight="9360" xr2:uid="{E37E2AF7-75C5-4457-9BD0-4132886491AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -305,34 +305,34 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -647,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A21664-9146-44B9-ACA5-1B5583D097B6}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,13 +778,13 @@
       <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -798,16 +798,16 @@
       <c r="C11" s="3">
         <v>12000</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>10110</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="14">
         <v>9241</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="14">
         <v>9281</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="14">
         <v>9281</v>
       </c>
     </row>
@@ -821,16 +821,16 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>0.98160000000000003</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>99.57</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="15">
         <v>99.57</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="15">
         <v>99.57</v>
       </c>
     </row>
@@ -844,16 +844,16 @@
       <c r="C13" s="3">
         <v>152.99</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>325.25</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="14">
         <v>137.76</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="14">
         <v>179.7</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="14">
         <v>182.68</v>
       </c>
     </row>
@@ -867,16 +867,16 @@
       <c r="C14" s="3">
         <v>0.75</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>2.54</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="14">
         <v>0.44</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="14">
         <v>0.57999999999999996</v>
       </c>
     </row>
@@ -890,16 +890,16 @@
       <c r="C15" s="3">
         <v>78.44</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>31.08</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="14">
         <v>67.08</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="14">
         <v>51.65</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="14">
         <v>50.8</v>
       </c>
     </row>
@@ -907,22 +907,22 @@
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="17">
         <v>0.63</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="17">
         <v>0.64</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="19">
         <v>0.26</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="14">
         <v>4.74</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="14">
         <v>3.61</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="14">
         <v>3.55</v>
       </c>
     </row>
@@ -930,12 +930,12 @@
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -947,16 +947,16 @@
       <c r="C18" s="3">
         <v>59.14</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>78.819999999999993</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="14">
         <v>29.24</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="14">
         <v>29.23</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="14">
         <v>29.25</v>
       </c>
     </row>
@@ -970,16 +970,16 @@
       <c r="C19" s="3">
         <v>12000</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>10127</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="14">
         <v>9241</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="14">
         <v>9281</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="14">
         <v>9281</v>
       </c>
     </row>
@@ -993,16 +993,16 @@
       <c r="C20" s="3">
         <v>0</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <v>189</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="14">
         <v>40</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="14">
         <v>40</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="14">
         <v>40</v>
       </c>
     </row>
@@ -1016,16 +1016,16 @@
       <c r="C21" s="3">
         <v>5.0199999999999996</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="11">
         <v>60.54</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="14">
         <v>3.71</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="14">
         <v>6.58</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="14">
         <v>6.55</v>
       </c>
     </row>
@@ -1042,6 +1042,11 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
